--- a/generated_docs/WR_89877351_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7477.21</v>
+        <v>7309.41</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/15/2025 to 07/20/25</t>
+          <t>07/14/2025 to 07/20/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -737,22 +737,22 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>POL-35-5</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 5</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>198.88</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +776,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -799,28 +799,28 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>478.55</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>POL-35-5</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 5</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -833,18 +833,18 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>198.88</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>POL-40-1</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 1</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,28 +867,28 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>478.55</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>POL-35-5</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 5</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,18 +901,18 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>198.88</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,18 +935,18 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>478.55</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>POL-35-6</t>
+          <t>POL-35-5</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 6</t>
+          <t>Pole,35ft,Class 5</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -975,7 +975,7 @@
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
@@ -1009,12 +1009,12 @@
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>POL-35-6</t>
+          <t>POL-35-5</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 6</t>
+          <t>Pole,35ft,Class 5</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1043,7 +1043,7 @@
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
@@ -1077,12 +1077,12 @@
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>POL-35-5</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pole,35ft,Class 5</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1111,12 +1111,12 @@
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,28 +1139,28 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>648.53</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-35-6</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,35ft,Class 6</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,18 +1173,18 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>648.53</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,28 +1207,28 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>648.53</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-35-6</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,35ft,Class 6</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,18 +1241,18 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>648.53</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-1</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 1</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,28 +1275,28 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>648.53</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>648.53</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="33">
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>7477.209999999999</v>
+        <v>7309.410000000001</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89877351_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7309.41</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>7309.410000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89877351_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>7309.41</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="31">
@@ -1275,7 +1271,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="33">
@@ -1319,7 +1315,7 @@
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>0</v>
+        <v>7309.410000000001</v>
       </c>
     </row>
   </sheetData>
